--- a/workbookCalendar.xlsx
+++ b/workbookCalendar.xlsx
@@ -68,13 +68,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>43542.7615775</v>
+        <v>44258.50943398148</v>
       </c>
       <c r="B1" t="n" s="1">
-        <v>43542.76157761574</v>
+        <v>44258.50943457176</v>
       </c>
       <c r="C1" t="n" s="1">
-        <v>43542.76157761574</v>
+        <v>44258.509434583335</v>
       </c>
     </row>
     <row r="3">
@@ -82,10 +82,10 @@
         <v>1.1</v>
       </c>
       <c r="B3" t="n">
-        <v>43542.76157761574</v>
+        <v>44258.509434872685</v>
       </c>
       <c r="C3" t="n">
-        <v>43542.76157761574</v>
+        <v>44258.509434872685</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
